--- a/transaction2.xlsx
+++ b/transaction2.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharyal\Documents\Tracker\PMRepTracker\2020\04\shpy\shpyclass\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33215DC2-5BC5-4F62-BBB2-2BD4204DD414}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,204 +46,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51D9-473C-B9A6-1954BE2350C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,99 +435,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Transaction</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Transaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1001</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>1002</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>1003</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>45</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>1004</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>1005</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>1006</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>1006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>